--- a/biology/Botanique/Gongora/Gongora.xlsx
+++ b/biology/Botanique/Gongora/Gongora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gongora est un genre d'orchidées épiphytes comptant actuellement 65 espèces originaires d'Amérique centrale, du Trinidad et de la zone tropicale de l'Amérique du Sud. La plupart des espèces poussent en Colombie et en Équateur. On trouve le genre Gongora en épiphyte dans les forêts humides du niveau de la mer aux régions montagneuses des Andes, à plus de 1 800 m d'altitude.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Gongora vient de Antonio Caballero y Góngora, un vice-roi de Nouvelle-Grenade (Colombie et Équateur) et le gouverneur du Pérou au cours de l'expédition botanique à la vice-royauté du Pérou menée par les botanistes Hipólito Ruiz López, José Antonio Pavón et Joseph Dombey entre 1777 et 1788.
 </t>
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gongora était l'une des premières orchidées décrites par un Européen en 1794. Plusieurs nouvelles orchidées Gongora ont été découvertes au cours des dix dernières années, alors que beaucoup d'autres ont été affectées sous un autre nom spécifique. Pourtant il reste encore une certaine confusion. De nombreuses espèces attendent une confirmation ADN pour connaître leur statut taxonomique.
 </t>
@@ -573,12 +589,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes épiphytes à feuilles nervurées. 
 L'inflorescence en grappe pendante.
 Labelle allongé.
-Les Gongora sont  souvent associées à des nids de fourmis[2].
+Les Gongora sont  souvent associées à des nids de fourmis.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexique, jusqu'en Bolivie et au Brésil.
 </t>
@@ -638,7 +658,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gongora aceras (Équateur).
